--- a/Result/09-11-24/NASDAQstock_09-11-24period252RS90.xlsx
+++ b/Result/09-11-24/NASDAQstock_09-11-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/09-11-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0486371-1AFC-674B-9A6A-46B2B27F0BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604F462E-2DF5-F243-AA05-0B4F1A899D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -968,18 +968,21 @@
       <b/>
       <sz val="11"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -1043,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1053,6 +1056,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1358,7 +1362,7 @@
   <dimension ref="A1:AN128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2316,7 +2320,7 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B9">
@@ -2435,7 +2439,7 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B10">
@@ -2554,7 +2558,7 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B11">
@@ -2673,7 +2677,7 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B12">
@@ -2792,7 +2796,7 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
+      <c r="A13" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B13">
@@ -2911,7 +2915,7 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B14">
@@ -3027,7 +3031,7 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B15">
@@ -3146,7 +3150,7 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
+      <c r="A16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B16">
@@ -3265,7 +3269,7 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
+      <c r="A17" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B17">
@@ -3384,7 +3388,7 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
+      <c r="A18" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B18">
@@ -3503,7 +3507,7 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
+      <c r="A19" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B19">
@@ -3622,7 +3626,7 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
+      <c r="A20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B20">
@@ -4220,7 +4224,7 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B25">
@@ -4956,7 +4960,7 @@
         <v>3.4</v>
       </c>
       <c r="H31">
-        <v>0.66125617592065511</v>
+        <v>0.661256175920655</v>
       </c>
       <c r="I31">
         <v>170.41999816894531</v>
@@ -5651,7 +5655,7 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
+      <c r="A37" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B37">
@@ -5770,7 +5774,7 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
+      <c r="A38" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B38">
@@ -5889,7 +5893,7 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
+      <c r="A39" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B39">
@@ -6008,7 +6012,7 @@
       </c>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" t="s">
+      <c r="A40" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B40">
@@ -6127,7 +6131,7 @@
       </c>
     </row>
     <row r="41" spans="1:40">
-      <c r="A41" t="s">
+      <c r="A41" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B41">
@@ -6246,7 +6250,7 @@
       </c>
     </row>
     <row r="42" spans="1:40">
-      <c r="A42" t="s">
+      <c r="A42" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B42">
@@ -6365,7 +6369,7 @@
       </c>
     </row>
     <row r="43" spans="1:40">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B43">
@@ -6484,7 +6488,7 @@
       </c>
     </row>
     <row r="44" spans="1:40">
-      <c r="A44" t="s">
+      <c r="A44" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B44">
@@ -6603,7 +6607,7 @@
       </c>
     </row>
     <row r="45" spans="1:40">
-      <c r="A45" t="s">
+      <c r="A45" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B45">
@@ -6722,7 +6726,7 @@
       </c>
     </row>
     <row r="46" spans="1:40">
-      <c r="A46" t="s">
+      <c r="A46" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B46">
@@ -6841,7 +6845,7 @@
       </c>
     </row>
     <row r="47" spans="1:40">
-      <c r="A47" t="s">
+      <c r="A47" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B47">
@@ -6960,7 +6964,7 @@
       </c>
     </row>
     <row r="48" spans="1:40">
-      <c r="A48" t="s">
+      <c r="A48" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B48">
@@ -7079,7 +7083,7 @@
       </c>
     </row>
     <row r="49" spans="1:40">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B49">
@@ -7198,7 +7202,7 @@
       </c>
     </row>
     <row r="50" spans="1:40">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B50">
@@ -7317,7 +7321,7 @@
       </c>
     </row>
     <row r="51" spans="1:40">
-      <c r="A51" t="s">
+      <c r="A51" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B51">
@@ -7436,7 +7440,7 @@
       </c>
     </row>
     <row r="52" spans="1:40">
-      <c r="A52" t="s">
+      <c r="A52" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B52">
@@ -7555,7 +7559,7 @@
       </c>
     </row>
     <row r="53" spans="1:40">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B53">
@@ -7674,7 +7678,7 @@
       </c>
     </row>
     <row r="54" spans="1:40">
-      <c r="A54" t="s">
+      <c r="A54" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B54">
@@ -7793,7 +7797,7 @@
       </c>
     </row>
     <row r="55" spans="1:40">
-      <c r="A55" t="s">
+      <c r="A55" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B55">
@@ -7912,7 +7916,7 @@
       </c>
     </row>
     <row r="56" spans="1:40">
-      <c r="A56" t="s">
+      <c r="A56" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B56">
@@ -8031,7 +8035,7 @@
       </c>
     </row>
     <row r="57" spans="1:40">
-      <c r="A57" t="s">
+      <c r="A57" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B57">
@@ -8150,7 +8154,7 @@
       </c>
     </row>
     <row r="58" spans="1:40">
-      <c r="A58" t="s">
+      <c r="A58" s="7" t="s">
         <v>177</v>
       </c>
       <c r="B58">
@@ -8269,7 +8273,7 @@
       </c>
     </row>
     <row r="59" spans="1:40">
-      <c r="A59" t="s">
+      <c r="A59" s="7" t="s">
         <v>178</v>
       </c>
       <c r="B59">
@@ -8388,7 +8392,7 @@
       </c>
     </row>
     <row r="60" spans="1:40">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B60">
@@ -8507,7 +8511,7 @@
       </c>
     </row>
     <row r="61" spans="1:40">
-      <c r="A61" t="s">
+      <c r="A61" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B61">
@@ -8626,7 +8630,7 @@
       </c>
     </row>
     <row r="62" spans="1:40">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B62">
@@ -8745,7 +8749,7 @@
       </c>
     </row>
     <row r="63" spans="1:40">
-      <c r="A63" t="s">
+      <c r="A63" s="7" t="s">
         <v>188</v>
       </c>
       <c r="B63">
@@ -8864,7 +8868,7 @@
       </c>
     </row>
     <row r="64" spans="1:40">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B64">
@@ -8983,7 +8987,7 @@
       </c>
     </row>
     <row r="65" spans="1:40">
-      <c r="A65" t="s">
+      <c r="A65" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B65">
@@ -9102,7 +9106,7 @@
       </c>
     </row>
     <row r="66" spans="1:40">
-      <c r="A66" t="s">
+      <c r="A66" s="7" t="s">
         <v>195</v>
       </c>
       <c r="B66">
@@ -9221,7 +9225,7 @@
       </c>
     </row>
     <row r="67" spans="1:40">
-      <c r="A67" t="s">
+      <c r="A67" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B67">
@@ -9340,7 +9344,7 @@
       </c>
     </row>
     <row r="68" spans="1:40">
-      <c r="A68" t="s">
+      <c r="A68" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B68">
@@ -9459,7 +9463,7 @@
       </c>
     </row>
     <row r="69" spans="1:40">
-      <c r="A69" t="s">
+      <c r="A69" s="7" t="s">
         <v>202</v>
       </c>
       <c r="B69">
@@ -9578,7 +9582,7 @@
       </c>
     </row>
     <row r="70" spans="1:40">
-      <c r="A70" t="s">
+      <c r="A70" s="7" t="s">
         <v>205</v>
       </c>
       <c r="B70">
@@ -9697,7 +9701,7 @@
       </c>
     </row>
     <row r="71" spans="1:40">
-      <c r="A71" t="s">
+      <c r="A71" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B71">
@@ -9816,7 +9820,7 @@
       </c>
     </row>
     <row r="72" spans="1:40">
-      <c r="A72" t="s">
+      <c r="A72" s="7" t="s">
         <v>209</v>
       </c>
       <c r="B72">
@@ -9935,7 +9939,7 @@
       </c>
     </row>
     <row r="73" spans="1:40">
-      <c r="A73" t="s">
+      <c r="A73" s="7" t="s">
         <v>212</v>
       </c>
       <c r="B73">
@@ -10054,7 +10058,7 @@
       </c>
     </row>
     <row r="74" spans="1:40">
-      <c r="A74" t="s">
+      <c r="A74" s="7" t="s">
         <v>214</v>
       </c>
       <c r="B74">
@@ -10173,7 +10177,7 @@
       </c>
     </row>
     <row r="75" spans="1:40">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B75">
@@ -10292,7 +10296,7 @@
       </c>
     </row>
     <row r="76" spans="1:40">
-      <c r="A76" t="s">
+      <c r="A76" s="7" t="s">
         <v>217</v>
       </c>
       <c r="B76">
@@ -10411,7 +10415,7 @@
       </c>
     </row>
     <row r="77" spans="1:40">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="7" t="s">
         <v>219</v>
       </c>
       <c r="B77">
@@ -10530,7 +10534,7 @@
       </c>
     </row>
     <row r="78" spans="1:40">
-      <c r="A78" t="s">
+      <c r="A78" s="7" t="s">
         <v>220</v>
       </c>
       <c r="B78">
@@ -10649,7 +10653,7 @@
       </c>
     </row>
     <row r="79" spans="1:40">
-      <c r="A79" t="s">
+      <c r="A79" s="7" t="s">
         <v>222</v>
       </c>
       <c r="B79">
@@ -10768,7 +10772,7 @@
       </c>
     </row>
     <row r="80" spans="1:40">
-      <c r="A80" t="s">
+      <c r="A80" s="7" t="s">
         <v>224</v>
       </c>
       <c r="B80">
@@ -10887,7 +10891,7 @@
       </c>
     </row>
     <row r="81" spans="1:40">
-      <c r="A81" t="s">
+      <c r="A81" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B81">
@@ -11006,7 +11010,7 @@
       </c>
     </row>
     <row r="82" spans="1:40">
-      <c r="A82" t="s">
+      <c r="A82" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B82">
@@ -11125,7 +11129,7 @@
       </c>
     </row>
     <row r="83" spans="1:40">
-      <c r="A83" t="s">
+      <c r="A83" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B83">
@@ -11244,7 +11248,7 @@
       </c>
     </row>
     <row r="84" spans="1:40">
-      <c r="A84" t="s">
+      <c r="A84" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B84">
@@ -11363,7 +11367,7 @@
       </c>
     </row>
     <row r="85" spans="1:40">
-      <c r="A85" t="s">
+      <c r="A85" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B85">
@@ -11482,7 +11486,7 @@
       </c>
     </row>
     <row r="86" spans="1:40">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B86">
@@ -11601,7 +11605,7 @@
       </c>
     </row>
     <row r="87" spans="1:40">
-      <c r="A87" t="s">
+      <c r="A87" s="7" t="s">
         <v>238</v>
       </c>
       <c r="B87">
@@ -11720,7 +11724,7 @@
       </c>
     </row>
     <row r="88" spans="1:40">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="7" t="s">
         <v>240</v>
       </c>
       <c r="B88">
@@ -11839,7 +11843,7 @@
       </c>
     </row>
     <row r="89" spans="1:40">
-      <c r="A89" t="s">
+      <c r="A89" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B89">
@@ -11958,7 +11962,7 @@
       </c>
     </row>
     <row r="90" spans="1:40">
-      <c r="A90" t="s">
+      <c r="A90" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B90">
@@ -12077,7 +12081,7 @@
       </c>
     </row>
     <row r="91" spans="1:40">
-      <c r="A91" t="s">
+      <c r="A91" s="7" t="s">
         <v>245</v>
       </c>
       <c r="B91">
@@ -12196,7 +12200,7 @@
       </c>
     </row>
     <row r="92" spans="1:40">
-      <c r="A92" t="s">
+      <c r="A92" s="7" t="s">
         <v>246</v>
       </c>
       <c r="B92">
@@ -12315,7 +12319,7 @@
       </c>
     </row>
     <row r="93" spans="1:40">
-      <c r="A93" t="s">
+      <c r="A93" s="7" t="s">
         <v>249</v>
       </c>
       <c r="B93">
@@ -12434,7 +12438,7 @@
       </c>
     </row>
     <row r="94" spans="1:40">
-      <c r="A94" t="s">
+      <c r="A94" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B94">
@@ -12553,7 +12557,7 @@
       </c>
     </row>
     <row r="95" spans="1:40">
-      <c r="A95" t="s">
+      <c r="A95" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B95">
@@ -12672,7 +12676,7 @@
       </c>
     </row>
     <row r="96" spans="1:40">
-      <c r="A96" t="s">
+      <c r="A96" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B96">
@@ -12791,7 +12795,7 @@
       </c>
     </row>
     <row r="97" spans="1:40">
-      <c r="A97" t="s">
+      <c r="A97" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B97">
@@ -12910,7 +12914,7 @@
       </c>
     </row>
     <row r="98" spans="1:40">
-      <c r="A98" t="s">
+      <c r="A98" s="7" t="s">
         <v>257</v>
       </c>
       <c r="B98">
@@ -13029,7 +13033,7 @@
       </c>
     </row>
     <row r="99" spans="1:40">
-      <c r="A99" t="s">
+      <c r="A99" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B99">
@@ -13148,7 +13152,7 @@
       </c>
     </row>
     <row r="100" spans="1:40">
-      <c r="A100" t="s">
+      <c r="A100" s="7" t="s">
         <v>262</v>
       </c>
       <c r="B100">
@@ -13267,7 +13271,7 @@
       </c>
     </row>
     <row r="101" spans="1:40">
-      <c r="A101" t="s">
+      <c r="A101" s="7" t="s">
         <v>264</v>
       </c>
       <c r="B101">
@@ -13386,7 +13390,7 @@
       </c>
     </row>
     <row r="102" spans="1:40">
-      <c r="A102" t="s">
+      <c r="A102" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B102">
@@ -13505,7 +13509,7 @@
       </c>
     </row>
     <row r="103" spans="1:40">
-      <c r="A103" t="s">
+      <c r="A103" s="7" t="s">
         <v>268</v>
       </c>
       <c r="B103">
@@ -13624,7 +13628,7 @@
       </c>
     </row>
     <row r="104" spans="1:40">
-      <c r="A104" t="s">
+      <c r="A104" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B104">
@@ -13743,7 +13747,7 @@
       </c>
     </row>
     <row r="105" spans="1:40">
-      <c r="A105" t="s">
+      <c r="A105" s="7" t="s">
         <v>271</v>
       </c>
       <c r="B105">
@@ -13862,7 +13866,7 @@
       </c>
     </row>
     <row r="106" spans="1:40">
-      <c r="A106" t="s">
+      <c r="A106" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B106">
@@ -13981,7 +13985,7 @@
       </c>
     </row>
     <row r="107" spans="1:40">
-      <c r="A107" t="s">
+      <c r="A107" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B107">
@@ -14100,7 +14104,7 @@
       </c>
     </row>
     <row r="108" spans="1:40">
-      <c r="A108" t="s">
+      <c r="A108" s="7" t="s">
         <v>275</v>
       </c>
       <c r="B108">
@@ -14219,7 +14223,7 @@
       </c>
     </row>
     <row r="109" spans="1:40">
-      <c r="A109" t="s">
+      <c r="A109" s="7" t="s">
         <v>276</v>
       </c>
       <c r="B109">
@@ -14338,7 +14342,7 @@
       </c>
     </row>
     <row r="110" spans="1:40">
-      <c r="A110" t="s">
+      <c r="A110" s="7" t="s">
         <v>277</v>
       </c>
       <c r="B110">
@@ -14457,7 +14461,7 @@
       </c>
     </row>
     <row r="111" spans="1:40">
-      <c r="A111" t="s">
+      <c r="A111" s="7" t="s">
         <v>279</v>
       </c>
       <c r="B111">
@@ -14576,7 +14580,7 @@
       </c>
     </row>
     <row r="112" spans="1:40">
-      <c r="A112" t="s">
+      <c r="A112" s="7" t="s">
         <v>280</v>
       </c>
       <c r="B112">
@@ -14695,7 +14699,7 @@
       </c>
     </row>
     <row r="113" spans="1:40">
-      <c r="A113" t="s">
+      <c r="A113" s="7" t="s">
         <v>282</v>
       </c>
       <c r="B113">
@@ -14814,7 +14818,7 @@
       </c>
     </row>
     <row r="114" spans="1:40">
-      <c r="A114" t="s">
+      <c r="A114" s="7" t="s">
         <v>283</v>
       </c>
       <c r="B114">
@@ -14933,7 +14937,7 @@
       </c>
     </row>
     <row r="115" spans="1:40">
-      <c r="A115" t="s">
+      <c r="A115" s="7" t="s">
         <v>285</v>
       </c>
       <c r="B115">
@@ -15052,7 +15056,7 @@
       </c>
     </row>
     <row r="116" spans="1:40">
-      <c r="A116" t="s">
+      <c r="A116" s="7" t="s">
         <v>287</v>
       </c>
       <c r="B116">
@@ -15168,7 +15172,7 @@
       </c>
     </row>
     <row r="117" spans="1:40">
-      <c r="A117" t="s">
+      <c r="A117" s="7" t="s">
         <v>289</v>
       </c>
       <c r="B117">
@@ -15287,7 +15291,7 @@
       </c>
     </row>
     <row r="118" spans="1:40">
-      <c r="A118" t="s">
+      <c r="A118" s="7" t="s">
         <v>291</v>
       </c>
       <c r="B118">
@@ -15406,7 +15410,7 @@
       </c>
     </row>
     <row r="119" spans="1:40">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="7" t="s">
         <v>293</v>
       </c>
       <c r="B119">
@@ -15525,7 +15529,7 @@
       </c>
     </row>
     <row r="120" spans="1:40">
-      <c r="A120" t="s">
+      <c r="A120" s="7" t="s">
         <v>295</v>
       </c>
       <c r="B120">
@@ -15644,7 +15648,7 @@
       </c>
     </row>
     <row r="121" spans="1:40">
-      <c r="A121" t="s">
+      <c r="A121" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B121">
@@ -15763,7 +15767,7 @@
       </c>
     </row>
     <row r="122" spans="1:40">
-      <c r="A122" t="s">
+      <c r="A122" s="7" t="s">
         <v>297</v>
       </c>
       <c r="B122">
@@ -15882,7 +15886,7 @@
       </c>
     </row>
     <row r="123" spans="1:40">
-      <c r="A123" t="s">
+      <c r="A123" s="7" t="s">
         <v>300</v>
       </c>
       <c r="B123">
@@ -16001,7 +16005,7 @@
       </c>
     </row>
     <row r="124" spans="1:40">
-      <c r="A124" t="s">
+      <c r="A124" s="7" t="s">
         <v>302</v>
       </c>
       <c r="B124">
@@ -16120,7 +16124,7 @@
       </c>
     </row>
     <row r="125" spans="1:40">
-      <c r="A125" t="s">
+      <c r="A125" s="7" t="s">
         <v>304</v>
       </c>
       <c r="B125">
@@ -16239,7 +16243,7 @@
       </c>
     </row>
     <row r="126" spans="1:40">
-      <c r="A126" t="s">
+      <c r="A126" s="7" t="s">
         <v>306</v>
       </c>
       <c r="B126">
@@ -16358,7 +16362,7 @@
       </c>
     </row>
     <row r="127" spans="1:40">
-      <c r="A127" t="s">
+      <c r="A127" s="7" t="s">
         <v>308</v>
       </c>
       <c r="B127">
@@ -16477,7 +16481,7 @@
       </c>
     </row>
     <row r="128" spans="1:40">
-      <c r="A128" t="s">
+      <c r="A128" s="7" t="s">
         <v>309</v>
       </c>
       <c r="B128">

--- a/Result/09-11-24/NASDAQstock_09-11-24period252RS90.xlsx
+++ b/Result/09-11-24/NASDAQstock_09-11-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/09-11-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604F462E-2DF5-F243-AA05-0B4F1A899D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596A5286-21E8-554B-BE7E-9D1CA0BCB187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,7 +1056,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:AN128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2320,7 +2320,7 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>68</v>
       </c>
       <c r="B9">
@@ -2439,7 +2439,7 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>72</v>
       </c>
       <c r="B10">
@@ -2558,7 +2558,7 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="7" t="s">
+      <c r="A11" t="s">
         <v>73</v>
       </c>
       <c r="B11">
@@ -2796,7 +2796,7 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
         <v>80</v>
       </c>
       <c r="B13">
@@ -2915,7 +2915,7 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" s="7" t="s">
+      <c r="A14" t="s">
         <v>83</v>
       </c>
       <c r="B14">
@@ -3031,7 +3031,7 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" s="7" t="s">
+      <c r="A15" t="s">
         <v>86</v>
       </c>
       <c r="B15">
@@ -3150,7 +3150,7 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" s="7" t="s">
+      <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="B16">
@@ -3269,7 +3269,7 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" s="7" t="s">
+      <c r="A17" t="s">
         <v>92</v>
       </c>
       <c r="B17">
@@ -3388,7 +3388,7 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" s="7" t="s">
+      <c r="A18" t="s">
         <v>93</v>
       </c>
       <c r="B18">
@@ -3507,7 +3507,7 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" s="7" t="s">
+      <c r="A19" t="s">
         <v>94</v>
       </c>
       <c r="B19">
@@ -3626,7 +3626,7 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" s="7" t="s">
+      <c r="A20" t="s">
         <v>97</v>
       </c>
       <c r="B20">
@@ -4224,7 +4224,7 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" s="7" t="s">
+      <c r="A25" t="s">
         <v>109</v>
       </c>
       <c r="B25">
@@ -5655,7 +5655,7 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" s="7" t="s">
+      <c r="A37" t="s">
         <v>135</v>
       </c>
       <c r="B37">
@@ -5774,7 +5774,7 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" s="7" t="s">
+      <c r="A38" t="s">
         <v>138</v>
       </c>
       <c r="B38">
@@ -5893,7 +5893,7 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" s="7" t="s">
+      <c r="A39" t="s">
         <v>139</v>
       </c>
       <c r="B39">
@@ -6012,7 +6012,7 @@
       </c>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" s="7" t="s">
+      <c r="A40" t="s">
         <v>141</v>
       </c>
       <c r="B40">
@@ -6131,7 +6131,7 @@
       </c>
     </row>
     <row r="41" spans="1:40">
-      <c r="A41" s="7" t="s">
+      <c r="A41" t="s">
         <v>143</v>
       </c>
       <c r="B41">
@@ -6250,7 +6250,7 @@
       </c>
     </row>
     <row r="42" spans="1:40">
-      <c r="A42" s="7" t="s">
+      <c r="A42" t="s">
         <v>146</v>
       </c>
       <c r="B42">
@@ -6369,7 +6369,7 @@
       </c>
     </row>
     <row r="43" spans="1:40">
-      <c r="A43" s="7" t="s">
+      <c r="A43" t="s">
         <v>149</v>
       </c>
       <c r="B43">
@@ -6488,7 +6488,7 @@
       </c>
     </row>
     <row r="44" spans="1:40">
-      <c r="A44" s="7" t="s">
+      <c r="A44" t="s">
         <v>152</v>
       </c>
       <c r="B44">
@@ -6607,7 +6607,7 @@
       </c>
     </row>
     <row r="45" spans="1:40">
-      <c r="A45" s="7" t="s">
+      <c r="A45" t="s">
         <v>154</v>
       </c>
       <c r="B45">
@@ -6726,7 +6726,7 @@
       </c>
     </row>
     <row r="46" spans="1:40">
-      <c r="A46" s="7" t="s">
+      <c r="A46" t="s">
         <v>155</v>
       </c>
       <c r="B46">
@@ -6845,7 +6845,7 @@
       </c>
     </row>
     <row r="47" spans="1:40">
-      <c r="A47" s="7" t="s">
+      <c r="A47" t="s">
         <v>157</v>
       </c>
       <c r="B47">
@@ -6964,7 +6964,7 @@
       </c>
     </row>
     <row r="48" spans="1:40">
-      <c r="A48" s="7" t="s">
+      <c r="A48" t="s">
         <v>158</v>
       </c>
       <c r="B48">
@@ -7083,7 +7083,7 @@
       </c>
     </row>
     <row r="49" spans="1:40">
-      <c r="A49" s="7" t="s">
+      <c r="A49" t="s">
         <v>159</v>
       </c>
       <c r="B49">
@@ -7202,7 +7202,7 @@
       </c>
     </row>
     <row r="50" spans="1:40">
-      <c r="A50" s="7" t="s">
+      <c r="A50" t="s">
         <v>162</v>
       </c>
       <c r="B50">
@@ -7321,7 +7321,7 @@
       </c>
     </row>
     <row r="51" spans="1:40">
-      <c r="A51" s="7" t="s">
+      <c r="A51" t="s">
         <v>164</v>
       </c>
       <c r="B51">
@@ -7440,7 +7440,7 @@
       </c>
     </row>
     <row r="52" spans="1:40">
-      <c r="A52" s="7" t="s">
+      <c r="A52" t="s">
         <v>166</v>
       </c>
       <c r="B52">
@@ -7559,7 +7559,7 @@
       </c>
     </row>
     <row r="53" spans="1:40">
-      <c r="A53" s="7" t="s">
+      <c r="A53" t="s">
         <v>168</v>
       </c>
       <c r="B53">
@@ -7678,7 +7678,7 @@
       </c>
     </row>
     <row r="54" spans="1:40">
-      <c r="A54" s="7" t="s">
+      <c r="A54" t="s">
         <v>170</v>
       </c>
       <c r="B54">
@@ -7797,7 +7797,7 @@
       </c>
     </row>
     <row r="55" spans="1:40">
-      <c r="A55" s="7" t="s">
+      <c r="A55" t="s">
         <v>172</v>
       </c>
       <c r="B55">
@@ -7916,7 +7916,7 @@
       </c>
     </row>
     <row r="56" spans="1:40">
-      <c r="A56" s="7" t="s">
+      <c r="A56" t="s">
         <v>174</v>
       </c>
       <c r="B56">
@@ -8035,7 +8035,7 @@
       </c>
     </row>
     <row r="57" spans="1:40">
-      <c r="A57" s="7" t="s">
+      <c r="A57" t="s">
         <v>175</v>
       </c>
       <c r="B57">
@@ -8154,7 +8154,7 @@
       </c>
     </row>
     <row r="58" spans="1:40">
-      <c r="A58" s="7" t="s">
+      <c r="A58" t="s">
         <v>177</v>
       </c>
       <c r="B58">
@@ -8273,7 +8273,7 @@
       </c>
     </row>
     <row r="59" spans="1:40">
-      <c r="A59" s="7" t="s">
+      <c r="A59" t="s">
         <v>178</v>
       </c>
       <c r="B59">
@@ -8392,7 +8392,7 @@
       </c>
     </row>
     <row r="60" spans="1:40">
-      <c r="A60" s="7" t="s">
+      <c r="A60" t="s">
         <v>181</v>
       </c>
       <c r="B60">
@@ -8511,7 +8511,7 @@
       </c>
     </row>
     <row r="61" spans="1:40">
-      <c r="A61" s="7" t="s">
+      <c r="A61" t="s">
         <v>184</v>
       </c>
       <c r="B61">
@@ -8630,7 +8630,7 @@
       </c>
     </row>
     <row r="62" spans="1:40">
-      <c r="A62" s="7" t="s">
+      <c r="A62" t="s">
         <v>186</v>
       </c>
       <c r="B62">
@@ -8749,7 +8749,7 @@
       </c>
     </row>
     <row r="63" spans="1:40">
-      <c r="A63" s="7" t="s">
+      <c r="A63" t="s">
         <v>188</v>
       </c>
       <c r="B63">
@@ -8868,7 +8868,7 @@
       </c>
     </row>
     <row r="64" spans="1:40">
-      <c r="A64" s="7" t="s">
+      <c r="A64" t="s">
         <v>190</v>
       </c>
       <c r="B64">
@@ -8987,7 +8987,7 @@
       </c>
     </row>
     <row r="65" spans="1:40">
-      <c r="A65" s="7" t="s">
+      <c r="A65" t="s">
         <v>193</v>
       </c>
       <c r="B65">
@@ -9106,7 +9106,7 @@
       </c>
     </row>
     <row r="66" spans="1:40">
-      <c r="A66" s="7" t="s">
+      <c r="A66" t="s">
         <v>195</v>
       </c>
       <c r="B66">
@@ -9225,7 +9225,7 @@
       </c>
     </row>
     <row r="67" spans="1:40">
-      <c r="A67" s="7" t="s">
+      <c r="A67" t="s">
         <v>196</v>
       </c>
       <c r="B67">
@@ -9344,7 +9344,7 @@
       </c>
     </row>
     <row r="68" spans="1:40">
-      <c r="A68" s="7" t="s">
+      <c r="A68" t="s">
         <v>199</v>
       </c>
       <c r="B68">
@@ -9463,7 +9463,7 @@
       </c>
     </row>
     <row r="69" spans="1:40">
-      <c r="A69" s="7" t="s">
+      <c r="A69" t="s">
         <v>202</v>
       </c>
       <c r="B69">
@@ -9582,7 +9582,7 @@
       </c>
     </row>
     <row r="70" spans="1:40">
-      <c r="A70" s="7" t="s">
+      <c r="A70" t="s">
         <v>205</v>
       </c>
       <c r="B70">
@@ -9701,7 +9701,7 @@
       </c>
     </row>
     <row r="71" spans="1:40">
-      <c r="A71" s="7" t="s">
+      <c r="A71" t="s">
         <v>206</v>
       </c>
       <c r="B71">
@@ -9820,7 +9820,7 @@
       </c>
     </row>
     <row r="72" spans="1:40">
-      <c r="A72" s="7" t="s">
+      <c r="A72" t="s">
         <v>209</v>
       </c>
       <c r="B72">
@@ -9939,7 +9939,7 @@
       </c>
     </row>
     <row r="73" spans="1:40">
-      <c r="A73" s="7" t="s">
+      <c r="A73" t="s">
         <v>212</v>
       </c>
       <c r="B73">
@@ -10058,7 +10058,7 @@
       </c>
     </row>
     <row r="74" spans="1:40">
-      <c r="A74" s="7" t="s">
+      <c r="A74" t="s">
         <v>214</v>
       </c>
       <c r="B74">
@@ -10177,7 +10177,7 @@
       </c>
     </row>
     <row r="75" spans="1:40">
-      <c r="A75" s="7" t="s">
+      <c r="A75" t="s">
         <v>215</v>
       </c>
       <c r="B75">
@@ -10296,7 +10296,7 @@
       </c>
     </row>
     <row r="76" spans="1:40">
-      <c r="A76" s="7" t="s">
+      <c r="A76" t="s">
         <v>217</v>
       </c>
       <c r="B76">
@@ -10415,7 +10415,7 @@
       </c>
     </row>
     <row r="77" spans="1:40">
-      <c r="A77" s="7" t="s">
+      <c r="A77" t="s">
         <v>219</v>
       </c>
       <c r="B77">
@@ -10534,7 +10534,7 @@
       </c>
     </row>
     <row r="78" spans="1:40">
-      <c r="A78" s="7" t="s">
+      <c r="A78" t="s">
         <v>220</v>
       </c>
       <c r="B78">
@@ -10653,7 +10653,7 @@
       </c>
     </row>
     <row r="79" spans="1:40">
-      <c r="A79" s="7" t="s">
+      <c r="A79" t="s">
         <v>222</v>
       </c>
       <c r="B79">
@@ -10772,7 +10772,7 @@
       </c>
     </row>
     <row r="80" spans="1:40">
-      <c r="A80" s="7" t="s">
+      <c r="A80" t="s">
         <v>224</v>
       </c>
       <c r="B80">
@@ -10891,7 +10891,7 @@
       </c>
     </row>
     <row r="81" spans="1:40">
-      <c r="A81" s="7" t="s">
+      <c r="A81" t="s">
         <v>226</v>
       </c>
       <c r="B81">
@@ -11010,7 +11010,7 @@
       </c>
     </row>
     <row r="82" spans="1:40">
-      <c r="A82" s="7" t="s">
+      <c r="A82" t="s">
         <v>229</v>
       </c>
       <c r="B82">
@@ -11129,7 +11129,7 @@
       </c>
     </row>
     <row r="83" spans="1:40">
-      <c r="A83" s="7" t="s">
+      <c r="A83" t="s">
         <v>231</v>
       </c>
       <c r="B83">
@@ -11248,7 +11248,7 @@
       </c>
     </row>
     <row r="84" spans="1:40">
-      <c r="A84" s="7" t="s">
+      <c r="A84" t="s">
         <v>233</v>
       </c>
       <c r="B84">
@@ -11367,7 +11367,7 @@
       </c>
     </row>
     <row r="85" spans="1:40">
-      <c r="A85" s="7" t="s">
+      <c r="A85" t="s">
         <v>235</v>
       </c>
       <c r="B85">
@@ -11486,7 +11486,7 @@
       </c>
     </row>
     <row r="86" spans="1:40">
-      <c r="A86" s="7" t="s">
+      <c r="A86" t="s">
         <v>237</v>
       </c>
       <c r="B86">
@@ -11605,7 +11605,7 @@
       </c>
     </row>
     <row r="87" spans="1:40">
-      <c r="A87" s="7" t="s">
+      <c r="A87" t="s">
         <v>238</v>
       </c>
       <c r="B87">
@@ -11724,7 +11724,7 @@
       </c>
     </row>
     <row r="88" spans="1:40">
-      <c r="A88" s="7" t="s">
+      <c r="A88" t="s">
         <v>240</v>
       </c>
       <c r="B88">
@@ -11843,7 +11843,7 @@
       </c>
     </row>
     <row r="89" spans="1:40">
-      <c r="A89" s="7" t="s">
+      <c r="A89" t="s">
         <v>241</v>
       </c>
       <c r="B89">
@@ -11962,7 +11962,7 @@
       </c>
     </row>
     <row r="90" spans="1:40">
-      <c r="A90" s="7" t="s">
+      <c r="A90" t="s">
         <v>243</v>
       </c>
       <c r="B90">
@@ -12081,7 +12081,7 @@
       </c>
     </row>
     <row r="91" spans="1:40">
-      <c r="A91" s="7" t="s">
+      <c r="A91" t="s">
         <v>245</v>
       </c>
       <c r="B91">
@@ -12200,7 +12200,7 @@
       </c>
     </row>
     <row r="92" spans="1:40">
-      <c r="A92" s="7" t="s">
+      <c r="A92" t="s">
         <v>246</v>
       </c>
       <c r="B92">
@@ -12319,7 +12319,7 @@
       </c>
     </row>
     <row r="93" spans="1:40">
-      <c r="A93" s="7" t="s">
+      <c r="A93" t="s">
         <v>249</v>
       </c>
       <c r="B93">
@@ -12438,7 +12438,7 @@
       </c>
     </row>
     <row r="94" spans="1:40">
-      <c r="A94" s="7" t="s">
+      <c r="A94" t="s">
         <v>250</v>
       </c>
       <c r="B94">
@@ -12557,7 +12557,7 @@
       </c>
     </row>
     <row r="95" spans="1:40">
-      <c r="A95" s="7" t="s">
+      <c r="A95" t="s">
         <v>251</v>
       </c>
       <c r="B95">
@@ -12676,7 +12676,7 @@
       </c>
     </row>
     <row r="96" spans="1:40">
-      <c r="A96" s="7" t="s">
+      <c r="A96" t="s">
         <v>253</v>
       </c>
       <c r="B96">
@@ -12795,7 +12795,7 @@
       </c>
     </row>
     <row r="97" spans="1:40">
-      <c r="A97" s="7" t="s">
+      <c r="A97" t="s">
         <v>255</v>
       </c>
       <c r="B97">
@@ -12914,7 +12914,7 @@
       </c>
     </row>
     <row r="98" spans="1:40">
-      <c r="A98" s="7" t="s">
+      <c r="A98" t="s">
         <v>257</v>
       </c>
       <c r="B98">
@@ -13033,7 +13033,7 @@
       </c>
     </row>
     <row r="99" spans="1:40">
-      <c r="A99" s="7" t="s">
+      <c r="A99" t="s">
         <v>259</v>
       </c>
       <c r="B99">
@@ -13152,7 +13152,7 @@
       </c>
     </row>
     <row r="100" spans="1:40">
-      <c r="A100" s="7" t="s">
+      <c r="A100" t="s">
         <v>262</v>
       </c>
       <c r="B100">
@@ -13271,7 +13271,7 @@
       </c>
     </row>
     <row r="101" spans="1:40">
-      <c r="A101" s="7" t="s">
+      <c r="A101" t="s">
         <v>264</v>
       </c>
       <c r="B101">
@@ -13390,7 +13390,7 @@
       </c>
     </row>
     <row r="102" spans="1:40">
-      <c r="A102" s="7" t="s">
+      <c r="A102" t="s">
         <v>265</v>
       </c>
       <c r="B102">
@@ -13509,7 +13509,7 @@
       </c>
     </row>
     <row r="103" spans="1:40">
-      <c r="A103" s="7" t="s">
+      <c r="A103" t="s">
         <v>268</v>
       </c>
       <c r="B103">
@@ -13628,7 +13628,7 @@
       </c>
     </row>
     <row r="104" spans="1:40">
-      <c r="A104" s="7" t="s">
+      <c r="A104" t="s">
         <v>269</v>
       </c>
       <c r="B104">
@@ -13747,7 +13747,7 @@
       </c>
     </row>
     <row r="105" spans="1:40">
-      <c r="A105" s="7" t="s">
+      <c r="A105" t="s">
         <v>271</v>
       </c>
       <c r="B105">
@@ -13866,7 +13866,7 @@
       </c>
     </row>
     <row r="106" spans="1:40">
-      <c r="A106" s="7" t="s">
+      <c r="A106" t="s">
         <v>272</v>
       </c>
       <c r="B106">
@@ -13985,7 +13985,7 @@
       </c>
     </row>
     <row r="107" spans="1:40">
-      <c r="A107" s="7" t="s">
+      <c r="A107" t="s">
         <v>273</v>
       </c>
       <c r="B107">
@@ -14104,7 +14104,7 @@
       </c>
     </row>
     <row r="108" spans="1:40">
-      <c r="A108" s="7" t="s">
+      <c r="A108" t="s">
         <v>275</v>
       </c>
       <c r="B108">
@@ -14223,7 +14223,7 @@
       </c>
     </row>
     <row r="109" spans="1:40">
-      <c r="A109" s="7" t="s">
+      <c r="A109" t="s">
         <v>276</v>
       </c>
       <c r="B109">
@@ -14342,7 +14342,7 @@
       </c>
     </row>
     <row r="110" spans="1:40">
-      <c r="A110" s="7" t="s">
+      <c r="A110" t="s">
         <v>277</v>
       </c>
       <c r="B110">
@@ -14461,7 +14461,7 @@
       </c>
     </row>
     <row r="111" spans="1:40">
-      <c r="A111" s="7" t="s">
+      <c r="A111" t="s">
         <v>279</v>
       </c>
       <c r="B111">
@@ -14580,7 +14580,7 @@
       </c>
     </row>
     <row r="112" spans="1:40">
-      <c r="A112" s="7" t="s">
+      <c r="A112" t="s">
         <v>280</v>
       </c>
       <c r="B112">
@@ -14699,7 +14699,7 @@
       </c>
     </row>
     <row r="113" spans="1:40">
-      <c r="A113" s="7" t="s">
+      <c r="A113" t="s">
         <v>282</v>
       </c>
       <c r="B113">
@@ -14818,7 +14818,7 @@
       </c>
     </row>
     <row r="114" spans="1:40">
-      <c r="A114" s="7" t="s">
+      <c r="A114" t="s">
         <v>283</v>
       </c>
       <c r="B114">
@@ -14937,7 +14937,7 @@
       </c>
     </row>
     <row r="115" spans="1:40">
-      <c r="A115" s="7" t="s">
+      <c r="A115" t="s">
         <v>285</v>
       </c>
       <c r="B115">
@@ -15056,7 +15056,7 @@
       </c>
     </row>
     <row r="116" spans="1:40">
-      <c r="A116" s="7" t="s">
+      <c r="A116" t="s">
         <v>287</v>
       </c>
       <c r="B116">
@@ -15172,7 +15172,7 @@
       </c>
     </row>
     <row r="117" spans="1:40">
-      <c r="A117" s="7" t="s">
+      <c r="A117" t="s">
         <v>289</v>
       </c>
       <c r="B117">
@@ -15291,7 +15291,7 @@
       </c>
     </row>
     <row r="118" spans="1:40">
-      <c r="A118" s="7" t="s">
+      <c r="A118" t="s">
         <v>291</v>
       </c>
       <c r="B118">
@@ -15410,7 +15410,7 @@
       </c>
     </row>
     <row r="119" spans="1:40">
-      <c r="A119" s="7" t="s">
+      <c r="A119" t="s">
         <v>293</v>
       </c>
       <c r="B119">
@@ -15529,7 +15529,7 @@
       </c>
     </row>
     <row r="120" spans="1:40">
-      <c r="A120" s="7" t="s">
+      <c r="A120" t="s">
         <v>295</v>
       </c>
       <c r="B120">
@@ -15648,7 +15648,7 @@
       </c>
     </row>
     <row r="121" spans="1:40">
-      <c r="A121" s="7" t="s">
+      <c r="A121" t="s">
         <v>296</v>
       </c>
       <c r="B121">
@@ -15767,7 +15767,7 @@
       </c>
     </row>
     <row r="122" spans="1:40">
-      <c r="A122" s="7" t="s">
+      <c r="A122" t="s">
         <v>297</v>
       </c>
       <c r="B122">
@@ -15886,7 +15886,7 @@
       </c>
     </row>
     <row r="123" spans="1:40">
-      <c r="A123" s="7" t="s">
+      <c r="A123" t="s">
         <v>300</v>
       </c>
       <c r="B123">
@@ -16005,7 +16005,7 @@
       </c>
     </row>
     <row r="124" spans="1:40">
-      <c r="A124" s="7" t="s">
+      <c r="A124" t="s">
         <v>302</v>
       </c>
       <c r="B124">
@@ -16124,7 +16124,7 @@
       </c>
     </row>
     <row r="125" spans="1:40">
-      <c r="A125" s="7" t="s">
+      <c r="A125" t="s">
         <v>304</v>
       </c>
       <c r="B125">
@@ -16243,7 +16243,7 @@
       </c>
     </row>
     <row r="126" spans="1:40">
-      <c r="A126" s="7" t="s">
+      <c r="A126" t="s">
         <v>306</v>
       </c>
       <c r="B126">
@@ -16362,7 +16362,7 @@
       </c>
     </row>
     <row r="127" spans="1:40">
-      <c r="A127" s="7" t="s">
+      <c r="A127" t="s">
         <v>308</v>
       </c>
       <c r="B127">
@@ -16481,7 +16481,7 @@
       </c>
     </row>
     <row r="128" spans="1:40">
-      <c r="A128" s="7" t="s">
+      <c r="A128" t="s">
         <v>309</v>
       </c>
       <c r="B128">
